--- a/Backlog 1.xlsx
+++ b/Backlog 1.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="48" windowWidth="22980" windowHeight="9552"/>
+    <workbookView xWindow="20" yWindow="80" windowWidth="25740" windowHeight="14060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -157,7 +162,7 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -167,7 +172,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -175,12 +180,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -189,63 +194,63 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -255,15 +260,33 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,270 +590,274 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" ht="60" customHeight="1" thickBot="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:8" ht="36" customHeight="1">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="36" customHeight="1">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" ht="36" customHeight="1">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" ht="36" customHeight="1">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" ht="36" customHeight="1">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="36" customHeight="1">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" ht="36" customHeight="1">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" ht="36" customHeight="1">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="36" customHeight="1">
+      <c r="A10" s="4">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" ht="36" customHeight="1">
+      <c r="A11" s="4">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
-        <v>1</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" ht="36" customHeight="1" thickBot="1">
+      <c r="A12" s="7">
+        <v>1</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -840,9 +867,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -852,8 +884,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Backlog 1.xlsx
+++ b/Backlog 1.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>Sprint Number</t>
   </si>
@@ -123,6 +123,15 @@
   </si>
   <si>
     <t>Final Version</t>
+  </si>
+  <si>
+    <t>1hr</t>
+  </si>
+  <si>
+    <t>Had to review the process of creating repositories and cloning to your computer</t>
+  </si>
+  <si>
+    <t>Date Completed</t>
   </si>
 </sst>
 </file>
@@ -258,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -285,6 +294,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -588,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -601,11 +631,12 @@
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="60" customHeight="1" thickBot="1">
+    <row r="1" spans="1:9" ht="60" customHeight="1" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -624,14 +655,17 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="36" customHeight="1">
+    <row r="2" spans="1:9" ht="36" customHeight="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -649,9 +683,10 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="36" customHeight="1">
+      <c r="H2" s="5"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" ht="36" customHeight="1">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -669,9 +704,10 @@
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" ht="36" customHeight="1">
+      <c r="H3" s="5"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" ht="36" customHeight="1">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -689,9 +725,10 @@
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" ht="36" customHeight="1">
+      <c r="H4" s="5"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" ht="36" customHeight="1">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -709,9 +746,10 @@
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" ht="36" customHeight="1">
+      <c r="H5" s="5"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" ht="36" customHeight="1">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -727,11 +765,20 @@
       <c r="E6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1">
+      <c r="F6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="15">
+        <v>41596</v>
+      </c>
+      <c r="H6" s="11">
+        <v>1</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="36" customHeight="1">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -749,9 +796,10 @@
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="36" customHeight="1">
+      <c r="H7" s="5"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" ht="36" customHeight="1">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -769,9 +817,10 @@
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="36" customHeight="1">
+      <c r="H8" s="5"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" ht="36" customHeight="1">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -789,9 +838,10 @@
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" ht="36" customHeight="1">
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" ht="36" customHeight="1">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -809,9 +859,10 @@
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" ht="36" customHeight="1">
+      <c r="H10" s="5"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" ht="36" customHeight="1">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -829,9 +880,10 @@
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" ht="36" customHeight="1" thickBot="1">
+      <c r="H11" s="5"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" ht="36" customHeight="1" thickBot="1">
       <c r="A12" s="7">
         <v>1</v>
       </c>
@@ -848,8 +900,13 @@
         <v>29</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
+      <c r="G12" s="16">
+        <v>41596</v>
+      </c>
+      <c r="H12" s="10">
+        <v>1</v>
+      </c>
+      <c r="I12" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Backlog 1.xlsx
+++ b/Backlog 1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="80" windowWidth="25740" windowHeight="14060"/>
+    <workbookView xWindow="820" yWindow="10380" windowWidth="25740" windowHeight="14060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Sprint Number</t>
   </si>
@@ -621,7 +621,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -702,9 +702,13 @@
       <c r="E3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="H3" s="11">
+        <v>1</v>
+      </c>
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" ht="36" customHeight="1">

--- a/Backlog 1.xlsx
+++ b/Backlog 1.xlsx
@@ -15,22 +15,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
-    <t>Sprint Number</t>
+    <t>Sprint                 Number</t>
   </si>
   <si>
     <t>Task Description</t>
   </si>
   <si>
-    <t>Definition of Done (DoD)</t>
-  </si>
-  <si>
-    <t>Assigned To</t>
-  </si>
-  <si>
-    <t>Hrs Planned</t>
-  </si>
-  <si>
-    <t>Hrs Spent</t>
+    <t>Definition of Done         (DoD)</t>
+  </si>
+  <si>
+    <t>Assigned   To</t>
+  </si>
+  <si>
+    <t>Hrs       Planned</t>
+  </si>
+  <si>
+    <t>Hrs        Spent</t>
   </si>
   <si>
     <t>Date Completed</t>
@@ -66,7 +66,23 @@
     <t>4 hours</t>
   </si>
   <si>
-    <t>10 required, Uploaded 19 images. janet</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">10 required, Uploaded 19 images. </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Janet</t>
+    </r>
   </si>
   <si>
     <t>Starting Base Code</t>
@@ -93,10 +109,23 @@
     <t>Respository is ready</t>
   </si>
   <si>
-    <t>1hr</t>
-  </si>
-  <si>
-    <t>Had to review the process of creating repositories and cloning to your computer. Repository was created and is being successfully access and used. janet</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Had to review the process of creating repositories and cloning to your computer. Repository was created and is being successfully access and used. </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Janet</t>
+    </r>
   </si>
   <si>
     <t>Setting Up Layout</t>
@@ -127,6 +156,25 @@
   </si>
   <si>
     <t>1 hour</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Created file and uploaded to github. </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Henry</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -135,9 +183,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="[h]&quot;h&quot;"/>
+    <numFmt numFmtId="59" formatCode="[h]&quot; hours&quot;"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -150,6 +198,17 @@
     </font>
     <font>
       <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -369,16 +428,16 @@
     <xf numFmtId="0" fontId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -414,12 +473,12 @@
     <xf numFmtId="1" fontId="1" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="1" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -429,8 +488,8 @@
     <xf numFmtId="0" fontId="1" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="59" fontId="1" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="1" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -438,7 +497,7 @@
     <xf numFmtId="9" fontId="1" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -482,15 +541,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="34.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.9609" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1172" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5938" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.27344" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28.3438" style="1" customWidth="1"/>
     <col min="10" max="256" width="6.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -501,16 +560,16 @@
       <c r="B1" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="4">
         <v>5</v>
       </c>
       <c r="G1" t="s" s="4">
@@ -613,7 +672,7 @@
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
-      <c r="I5" s="17"/>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" ht="56" customHeight="1">
       <c r="A6" s="10">
@@ -631,8 +690,8 @@
       <c r="E6" t="s" s="11">
         <v>21</v>
       </c>
-      <c r="F6" t="s" s="18">
-        <v>26</v>
+      <c r="F6" s="12">
+        <v>0.04166666666666666</v>
       </c>
       <c r="G6" s="13">
         <v>41596</v>
@@ -641,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s" s="19">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" ht="36" customHeight="1">
@@ -649,10 +708,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s" s="11">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s" s="11">
         <v>28</v>
-      </c>
-      <c r="C7" t="s" s="11">
-        <v>29</v>
       </c>
       <c r="D7" t="s" s="11">
         <v>20</v>
@@ -663,17 +722,17 @@
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
-      <c r="I7" s="17"/>
+      <c r="I7" s="18"/>
     </row>
     <row r="8" ht="36" customHeight="1">
       <c r="A8" s="10">
         <v>1</v>
       </c>
       <c r="B8" t="s" s="11">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s" s="11">
         <v>30</v>
-      </c>
-      <c r="C8" t="s" s="11">
-        <v>31</v>
       </c>
       <c r="D8" t="s" s="11">
         <v>15</v>
@@ -684,17 +743,17 @@
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
+      <c r="I8" s="18"/>
     </row>
     <row r="9" ht="36" customHeight="1">
       <c r="A9" s="10">
         <v>1</v>
       </c>
       <c r="B9" t="s" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s" s="11">
         <v>20</v>
@@ -705,17 +764,17 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
-      <c r="I9" s="17"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" ht="36" customHeight="1">
       <c r="A10" s="10">
         <v>1</v>
       </c>
       <c r="B10" t="s" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s" s="11">
         <v>15</v>
@@ -726,17 +785,17 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="17"/>
+      <c r="I10" s="18"/>
     </row>
     <row r="11" ht="36" customHeight="1">
       <c r="A11" s="10">
         <v>1</v>
       </c>
       <c r="B11" t="s" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s" s="11">
         <v>11</v>
@@ -747,32 +806,36 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
-      <c r="I11" s="17"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" ht="36" customHeight="1">
       <c r="A12" s="20">
         <v>1</v>
       </c>
       <c r="B12" t="s" s="21">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s" s="21">
         <v>35</v>
-      </c>
-      <c r="C12" t="s" s="21">
-        <v>36</v>
       </c>
       <c r="D12" t="s" s="21">
         <v>11</v>
       </c>
       <c r="E12" t="s" s="21">
-        <v>37</v>
-      </c>
-      <c r="F12" s="22"/>
+        <v>36</v>
+      </c>
+      <c r="F12" s="22">
+        <v>0.04166666666666666</v>
+      </c>
       <c r="G12" s="23">
         <v>41596</v>
       </c>
       <c r="H12" s="24">
         <v>1</v>
       </c>
-      <c r="I12" s="25"/>
+      <c r="I12" t="s" s="25">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Backlog 1.xlsx
+++ b/Backlog 1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>Sprint                 Number</t>
   </si>
@@ -209,6 +209,21 @@
       <t>Henry</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>Happy with current end screen, just wanted to alter the image used for the screen.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Henry</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -216,7 +231,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[h]&quot; hours&quot;"/>
-    <numFmt numFmtId="166" formatCode="m/d;@"/>
+    <numFmt numFmtId="165" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -462,7 +477,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -527,13 +542,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -553,6 +568,9 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -926,7 +944,7 @@
   <dimension ref="A1:IV12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.61328125" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1209,10 +1227,18 @@
       <c r="E11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="14"/>
+      <c r="F11" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="24">
+        <v>41602</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
